--- a/data/trans_orig/P70A05_2007-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P70A05_2007-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D7E0D0FF-0E27-48EB-B75F-7A89EFBC7EE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{2FE63992-8E40-4092-8F08-C686157E6966}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{29C2875E-D2D9-4D58-A4BB-E376B6049463}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{404539CE-599F-4BA4-A5FB-D6F7CE2FEE70}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -74,28 +74,28 @@
     <t>30,69%</t>
   </si>
   <si>
-    <t>22,21%</t>
-  </si>
-  <si>
-    <t>38,99%</t>
+    <t>22,47%</t>
+  </si>
+  <si>
+    <t>40,19%</t>
   </si>
   <si>
     <t>13,57%</t>
   </si>
   <si>
-    <t>7,35%</t>
-  </si>
-  <si>
-    <t>23,03%</t>
+    <t>7,24%</t>
+  </si>
+  <si>
+    <t>22,78%</t>
   </si>
   <si>
     <t>23,49%</t>
   </si>
   <si>
-    <t>18,3%</t>
-  </si>
-  <si>
-    <t>30,65%</t>
+    <t>17,84%</t>
+  </si>
+  <si>
+    <t>29,88%</t>
   </si>
   <si>
     <t>No</t>
@@ -104,28 +104,28 @@
     <t>69,31%</t>
   </si>
   <si>
-    <t>61,01%</t>
-  </si>
-  <si>
-    <t>77,79%</t>
+    <t>59,81%</t>
+  </si>
+  <si>
+    <t>77,53%</t>
   </si>
   <si>
     <t>86,43%</t>
   </si>
   <si>
-    <t>76,97%</t>
-  </si>
-  <si>
-    <t>92,65%</t>
+    <t>77,22%</t>
+  </si>
+  <si>
+    <t>92,76%</t>
   </si>
   <si>
     <t>76,51%</t>
   </si>
   <si>
-    <t>69,35%</t>
-  </si>
-  <si>
-    <t>81,7%</t>
+    <t>70,12%</t>
+  </si>
+  <si>
+    <t>82,16%</t>
   </si>
   <si>
     <t>100%</t>
@@ -137,55 +137,55 @@
     <t>56,98%</t>
   </si>
   <si>
-    <t>50,73%</t>
-  </si>
-  <si>
-    <t>63,51%</t>
+    <t>50,32%</t>
+  </si>
+  <si>
+    <t>63,47%</t>
   </si>
   <si>
     <t>51,12%</t>
   </si>
   <si>
-    <t>43,01%</t>
-  </si>
-  <si>
-    <t>60,99%</t>
+    <t>42,55%</t>
+  </si>
+  <si>
+    <t>60,09%</t>
   </si>
   <si>
     <t>55,07%</t>
   </si>
   <si>
-    <t>49,8%</t>
-  </si>
-  <si>
-    <t>60,3%</t>
+    <t>49,72%</t>
+  </si>
+  <si>
+    <t>60,37%</t>
   </si>
   <si>
     <t>43,02%</t>
   </si>
   <si>
-    <t>36,49%</t>
-  </si>
-  <si>
-    <t>49,27%</t>
+    <t>36,53%</t>
+  </si>
+  <si>
+    <t>49,68%</t>
   </si>
   <si>
     <t>48,88%</t>
   </si>
   <si>
-    <t>39,01%</t>
-  </si>
-  <si>
-    <t>56,99%</t>
+    <t>39,91%</t>
+  </si>
+  <si>
+    <t>57,45%</t>
   </si>
   <si>
     <t>44,93%</t>
   </si>
   <si>
-    <t>39,7%</t>
-  </si>
-  <si>
-    <t>50,2%</t>
+    <t>39,63%</t>
+  </si>
+  <si>
+    <t>50,28%</t>
   </si>
   <si>
     <t>Cordoba</t>
@@ -194,55 +194,55 @@
     <t>38,01%</t>
   </si>
   <si>
-    <t>28,26%</t>
-  </si>
-  <si>
-    <t>48,39%</t>
+    <t>28,45%</t>
+  </si>
+  <si>
+    <t>48,05%</t>
   </si>
   <si>
     <t>19,14%</t>
   </si>
   <si>
-    <t>9,52%</t>
-  </si>
-  <si>
-    <t>34,36%</t>
+    <t>9,22%</t>
+  </si>
+  <si>
+    <t>31,59%</t>
   </si>
   <si>
     <t>32,42%</t>
   </si>
   <si>
-    <t>24,98%</t>
-  </si>
-  <si>
-    <t>41,21%</t>
+    <t>25,31%</t>
+  </si>
+  <si>
+    <t>41,0%</t>
   </si>
   <si>
     <t>61,99%</t>
   </si>
   <si>
-    <t>51,61%</t>
-  </si>
-  <si>
-    <t>71,74%</t>
+    <t>51,95%</t>
+  </si>
+  <si>
+    <t>71,55%</t>
   </si>
   <si>
     <t>80,86%</t>
   </si>
   <si>
-    <t>65,64%</t>
-  </si>
-  <si>
-    <t>90,48%</t>
+    <t>68,41%</t>
+  </si>
+  <si>
+    <t>90,78%</t>
   </si>
   <si>
     <t>67,58%</t>
   </si>
   <si>
-    <t>58,79%</t>
-  </si>
-  <si>
-    <t>75,02%</t>
+    <t>59,0%</t>
+  </si>
+  <si>
+    <t>74,69%</t>
   </si>
   <si>
     <t>Granada</t>
@@ -251,55 +251,55 @@
     <t>28,12%</t>
   </si>
   <si>
-    <t>21,23%</t>
-  </si>
-  <si>
-    <t>36,7%</t>
+    <t>21,07%</t>
+  </si>
+  <si>
+    <t>35,96%</t>
   </si>
   <si>
     <t>22,53%</t>
   </si>
   <si>
-    <t>14,98%</t>
-  </si>
-  <si>
-    <t>31,53%</t>
+    <t>15,04%</t>
+  </si>
+  <si>
+    <t>32,96%</t>
   </si>
   <si>
     <t>26,01%</t>
   </si>
   <si>
-    <t>20,76%</t>
-  </si>
-  <si>
-    <t>31,95%</t>
+    <t>20,48%</t>
+  </si>
+  <si>
+    <t>31,51%</t>
   </si>
   <si>
     <t>71,88%</t>
   </si>
   <si>
-    <t>63,3%</t>
-  </si>
-  <si>
-    <t>78,77%</t>
+    <t>64,04%</t>
+  </si>
+  <si>
+    <t>78,93%</t>
   </si>
   <si>
     <t>77,47%</t>
   </si>
   <si>
-    <t>68,47%</t>
-  </si>
-  <si>
-    <t>85,02%</t>
+    <t>67,04%</t>
+  </si>
+  <si>
+    <t>84,96%</t>
   </si>
   <si>
     <t>73,99%</t>
   </si>
   <si>
-    <t>68,05%</t>
-  </si>
-  <si>
-    <t>79,24%</t>
+    <t>68,49%</t>
+  </si>
+  <si>
+    <t>79,52%</t>
   </si>
   <si>
     <t>Huelva</t>
@@ -308,55 +308,55 @@
     <t>69,18%</t>
   </si>
   <si>
-    <t>58,45%</t>
-  </si>
-  <si>
-    <t>78,09%</t>
+    <t>59,48%</t>
+  </si>
+  <si>
+    <t>77,98%</t>
   </si>
   <si>
     <t>49,73%</t>
   </si>
   <si>
-    <t>30,8%</t>
-  </si>
-  <si>
-    <t>67,13%</t>
+    <t>32,51%</t>
+  </si>
+  <si>
+    <t>67,97%</t>
   </si>
   <si>
     <t>64,46%</t>
   </si>
   <si>
-    <t>55,45%</t>
-  </si>
-  <si>
-    <t>72,26%</t>
+    <t>55,95%</t>
+  </si>
+  <si>
+    <t>72,27%</t>
   </si>
   <si>
     <t>30,82%</t>
   </si>
   <si>
-    <t>21,91%</t>
-  </si>
-  <si>
-    <t>41,55%</t>
+    <t>22,02%</t>
+  </si>
+  <si>
+    <t>40,52%</t>
   </si>
   <si>
     <t>50,27%</t>
   </si>
   <si>
-    <t>32,87%</t>
-  </si>
-  <si>
-    <t>69,2%</t>
+    <t>32,03%</t>
+  </si>
+  <si>
+    <t>67,49%</t>
   </si>
   <si>
     <t>35,54%</t>
   </si>
   <si>
-    <t>27,74%</t>
-  </si>
-  <si>
-    <t>44,55%</t>
+    <t>27,73%</t>
+  </si>
+  <si>
+    <t>44,05%</t>
   </si>
   <si>
     <t>Jaen</t>
@@ -365,55 +365,55 @@
     <t>39,11%</t>
   </si>
   <si>
-    <t>29,24%</t>
-  </si>
-  <si>
-    <t>49,91%</t>
+    <t>29,47%</t>
+  </si>
+  <si>
+    <t>49,71%</t>
   </si>
   <si>
     <t>18,73%</t>
   </si>
   <si>
-    <t>9,88%</t>
-  </si>
-  <si>
-    <t>31,18%</t>
+    <t>10,07%</t>
+  </si>
+  <si>
+    <t>33,27%</t>
   </si>
   <si>
     <t>31,93%</t>
   </si>
   <si>
-    <t>24,34%</t>
-  </si>
-  <si>
-    <t>40,45%</t>
+    <t>23,98%</t>
+  </si>
+  <si>
+    <t>39,86%</t>
   </si>
   <si>
     <t>60,89%</t>
   </si>
   <si>
-    <t>50,09%</t>
-  </si>
-  <si>
-    <t>70,76%</t>
+    <t>50,29%</t>
+  </si>
+  <si>
+    <t>70,53%</t>
   </si>
   <si>
     <t>81,27%</t>
   </si>
   <si>
-    <t>68,82%</t>
-  </si>
-  <si>
-    <t>90,12%</t>
+    <t>66,73%</t>
+  </si>
+  <si>
+    <t>89,93%</t>
   </si>
   <si>
     <t>68,07%</t>
   </si>
   <si>
-    <t>59,55%</t>
-  </si>
-  <si>
-    <t>75,66%</t>
+    <t>60,14%</t>
+  </si>
+  <si>
+    <t>76,02%</t>
   </si>
   <si>
     <t>Malaga</t>
@@ -422,19 +422,19 @@
     <t>56,85%</t>
   </si>
   <si>
-    <t>50,44%</t>
-  </si>
-  <si>
-    <t>63,82%</t>
+    <t>50,8%</t>
+  </si>
+  <si>
+    <t>63,58%</t>
   </si>
   <si>
     <t>43,27%</t>
   </si>
   <si>
-    <t>34,84%</t>
-  </si>
-  <si>
-    <t>53,97%</t>
+    <t>33,37%</t>
+  </si>
+  <si>
+    <t>51,63%</t>
   </si>
   <si>
     <t>52,4%</t>
@@ -443,31 +443,31 @@
     <t>46,82%</t>
   </si>
   <si>
-    <t>57,81%</t>
+    <t>57,9%</t>
   </si>
   <si>
     <t>43,15%</t>
   </si>
   <si>
-    <t>36,18%</t>
-  </si>
-  <si>
-    <t>49,56%</t>
+    <t>36,42%</t>
+  </si>
+  <si>
+    <t>49,2%</t>
   </si>
   <si>
     <t>56,73%</t>
   </si>
   <si>
-    <t>46,03%</t>
-  </si>
-  <si>
-    <t>65,16%</t>
+    <t>48,37%</t>
+  </si>
+  <si>
+    <t>66,63%</t>
   </si>
   <si>
     <t>47,6%</t>
   </si>
   <si>
-    <t>42,19%</t>
+    <t>42,1%</t>
   </si>
   <si>
     <t>53,18%</t>
@@ -479,109 +479,109 @@
     <t>65,55%</t>
   </si>
   <si>
-    <t>60,96%</t>
-  </si>
-  <si>
-    <t>70,06%</t>
+    <t>60,63%</t>
+  </si>
+  <si>
+    <t>70,1%</t>
   </si>
   <si>
     <t>54,27%</t>
   </si>
   <si>
-    <t>47,57%</t>
-  </si>
-  <si>
-    <t>61,26%</t>
+    <t>47,0%</t>
+  </si>
+  <si>
+    <t>61,27%</t>
   </si>
   <si>
     <t>61,81%</t>
   </si>
   <si>
-    <t>58,09%</t>
-  </si>
-  <si>
-    <t>65,81%</t>
+    <t>57,74%</t>
+  </si>
+  <si>
+    <t>65,5%</t>
   </si>
   <si>
     <t>34,45%</t>
   </si>
   <si>
-    <t>29,94%</t>
-  </si>
-  <si>
-    <t>39,04%</t>
+    <t>29,9%</t>
+  </si>
+  <si>
+    <t>39,37%</t>
   </si>
   <si>
     <t>45,73%</t>
   </si>
   <si>
-    <t>38,74%</t>
-  </si>
-  <si>
-    <t>52,43%</t>
+    <t>38,73%</t>
+  </si>
+  <si>
+    <t>53,0%</t>
   </si>
   <si>
     <t>38,19%</t>
   </si>
   <si>
-    <t>34,19%</t>
-  </si>
-  <si>
-    <t>41,91%</t>
+    <t>34,5%</t>
+  </si>
+  <si>
+    <t>42,26%</t>
   </si>
   <si>
     <t>52,84%</t>
   </si>
   <si>
-    <t>50,24%</t>
-  </si>
-  <si>
-    <t>55,43%</t>
+    <t>50,08%</t>
+  </si>
+  <si>
+    <t>55,57%</t>
   </si>
   <si>
     <t>39,03%</t>
   </si>
   <si>
-    <t>35,53%</t>
-  </si>
-  <si>
-    <t>42,69%</t>
+    <t>35,1%</t>
+  </si>
+  <si>
+    <t>42,59%</t>
   </si>
   <si>
     <t>48,19%</t>
   </si>
   <si>
-    <t>46,1%</t>
-  </si>
-  <si>
-    <t>50,3%</t>
+    <t>46,05%</t>
+  </si>
+  <si>
+    <t>50,48%</t>
   </si>
   <si>
     <t>47,16%</t>
   </si>
   <si>
-    <t>44,57%</t>
-  </si>
-  <si>
-    <t>49,76%</t>
+    <t>44,43%</t>
+  </si>
+  <si>
+    <t>49,92%</t>
   </si>
   <si>
     <t>60,97%</t>
   </si>
   <si>
-    <t>57,31%</t>
-  </si>
-  <si>
-    <t>64,47%</t>
+    <t>57,41%</t>
+  </si>
+  <si>
+    <t>64,9%</t>
   </si>
   <si>
     <t>51,81%</t>
   </si>
   <si>
-    <t>49,7%</t>
-  </si>
-  <si>
-    <t>53,9%</t>
+    <t>49,52%</t>
+  </si>
+  <si>
+    <t>53,95%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -996,7 +996,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BAB912ED-7E97-4497-8B05-D1180543BD61}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0770770D-9C86-4B21-9CB3-134CE0DF188F}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1663,7 +1663,7 @@
         <v>177</v>
       </c>
       <c r="N14" s="7">
-        <v>178161</v>
+        <v>178162</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>85</v>
@@ -1714,7 +1714,7 @@
         <v>238</v>
       </c>
       <c r="N15" s="7">
-        <v>240802</v>
+        <v>240803</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>

--- a/data/trans_orig/P70A05_2007-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P70A05_2007-Provincia-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2FE63992-8E40-4092-8F08-C686157E6966}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{CB97B18F-424C-4D54-9CF5-3B6C32FE87B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{404539CE-599F-4BA4-A5FB-D6F7CE2FEE70}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{20D01717-A0D9-480A-8385-2AF6A6B71867}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="183">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="181">
   <si>
     <t>Población según si tiene un comité de seguridad y salud o bien delegados de prevención en su empresa en 2007 (Tasa respuesta: 32,78%)</t>
   </si>
@@ -74,7 +74,7 @@
     <t>30,69%</t>
   </si>
   <si>
-    <t>22,47%</t>
+    <t>22,56%</t>
   </si>
   <si>
     <t>40,19%</t>
@@ -86,16 +86,16 @@
     <t>7,24%</t>
   </si>
   <si>
-    <t>22,78%</t>
+    <t>22,68%</t>
   </si>
   <si>
     <t>23,49%</t>
   </si>
   <si>
-    <t>17,84%</t>
-  </si>
-  <si>
-    <t>29,88%</t>
+    <t>18,22%</t>
+  </si>
+  <si>
+    <t>29,87%</t>
   </si>
   <si>
     <t>No</t>
@@ -107,13 +107,13 @@
     <t>59,81%</t>
   </si>
   <si>
-    <t>77,53%</t>
+    <t>77,44%</t>
   </si>
   <si>
     <t>86,43%</t>
   </si>
   <si>
-    <t>77,22%</t>
+    <t>77,32%</t>
   </si>
   <si>
     <t>92,76%</t>
@@ -122,10 +122,10 @@
     <t>76,51%</t>
   </si>
   <si>
-    <t>70,12%</t>
-  </si>
-  <si>
-    <t>82,16%</t>
+    <t>70,13%</t>
+  </si>
+  <si>
+    <t>81,78%</t>
   </si>
   <si>
     <t>100%</t>
@@ -137,451 +137,445 @@
     <t>56,98%</t>
   </si>
   <si>
-    <t>50,32%</t>
-  </si>
-  <si>
-    <t>63,47%</t>
+    <t>50,77%</t>
+  </si>
+  <si>
+    <t>63,49%</t>
   </si>
   <si>
     <t>51,12%</t>
   </si>
   <si>
+    <t>42,41%</t>
+  </si>
+  <si>
+    <t>59,98%</t>
+  </si>
+  <si>
+    <t>55,07%</t>
+  </si>
+  <si>
+    <t>49,22%</t>
+  </si>
+  <si>
+    <t>60,13%</t>
+  </si>
+  <si>
+    <t>43,02%</t>
+  </si>
+  <si>
+    <t>36,51%</t>
+  </si>
+  <si>
+    <t>49,23%</t>
+  </si>
+  <si>
+    <t>48,88%</t>
+  </si>
+  <si>
+    <t>40,02%</t>
+  </si>
+  <si>
+    <t>57,59%</t>
+  </si>
+  <si>
+    <t>44,93%</t>
+  </si>
+  <si>
+    <t>39,87%</t>
+  </si>
+  <si>
+    <t>50,78%</t>
+  </si>
+  <si>
+    <t>Cordoba</t>
+  </si>
+  <si>
+    <t>38,01%</t>
+  </si>
+  <si>
+    <t>28,38%</t>
+  </si>
+  <si>
+    <t>48,43%</t>
+  </si>
+  <si>
+    <t>19,14%</t>
+  </si>
+  <si>
+    <t>8,95%</t>
+  </si>
+  <si>
+    <t>33,73%</t>
+  </si>
+  <si>
+    <t>32,42%</t>
+  </si>
+  <si>
+    <t>24,84%</t>
+  </si>
+  <si>
+    <t>40,01%</t>
+  </si>
+  <si>
+    <t>61,99%</t>
+  </si>
+  <si>
+    <t>51,57%</t>
+  </si>
+  <si>
+    <t>71,62%</t>
+  </si>
+  <si>
+    <t>80,86%</t>
+  </si>
+  <si>
+    <t>66,27%</t>
+  </si>
+  <si>
+    <t>91,05%</t>
+  </si>
+  <si>
+    <t>67,58%</t>
+  </si>
+  <si>
+    <t>59,99%</t>
+  </si>
+  <si>
+    <t>75,16%</t>
+  </si>
+  <si>
+    <t>Granada</t>
+  </si>
+  <si>
+    <t>28,12%</t>
+  </si>
+  <si>
+    <t>20,35%</t>
+  </si>
+  <si>
+    <t>35,54%</t>
+  </si>
+  <si>
+    <t>22,53%</t>
+  </si>
+  <si>
+    <t>14,28%</t>
+  </si>
+  <si>
+    <t>31,65%</t>
+  </si>
+  <si>
+    <t>26,01%</t>
+  </si>
+  <si>
+    <t>20,85%</t>
+  </si>
+  <si>
+    <t>31,75%</t>
+  </si>
+  <si>
+    <t>71,88%</t>
+  </si>
+  <si>
+    <t>64,46%</t>
+  </si>
+  <si>
+    <t>79,65%</t>
+  </si>
+  <si>
+    <t>77,47%</t>
+  </si>
+  <si>
+    <t>68,35%</t>
+  </si>
+  <si>
+    <t>85,72%</t>
+  </si>
+  <si>
+    <t>73,99%</t>
+  </si>
+  <si>
+    <t>68,25%</t>
+  </si>
+  <si>
+    <t>79,15%</t>
+  </si>
+  <si>
+    <t>Huelva</t>
+  </si>
+  <si>
+    <t>69,18%</t>
+  </si>
+  <si>
+    <t>59,46%</t>
+  </si>
+  <si>
+    <t>77,87%</t>
+  </si>
+  <si>
+    <t>49,73%</t>
+  </si>
+  <si>
+    <t>32,31%</t>
+  </si>
+  <si>
+    <t>67,59%</t>
+  </si>
+  <si>
+    <t>55,73%</t>
+  </si>
+  <si>
+    <t>72,51%</t>
+  </si>
+  <si>
+    <t>30,82%</t>
+  </si>
+  <si>
+    <t>22,13%</t>
+  </si>
+  <si>
+    <t>40,54%</t>
+  </si>
+  <si>
+    <t>50,27%</t>
+  </si>
+  <si>
+    <t>32,41%</t>
+  </si>
+  <si>
+    <t>67,69%</t>
+  </si>
+  <si>
+    <t>27,49%</t>
+  </si>
+  <si>
+    <t>44,27%</t>
+  </si>
+  <si>
+    <t>Jaen</t>
+  </si>
+  <si>
+    <t>39,11%</t>
+  </si>
+  <si>
+    <t>28,27%</t>
+  </si>
+  <si>
+    <t>49,56%</t>
+  </si>
+  <si>
+    <t>18,73%</t>
+  </si>
+  <si>
+    <t>8,55%</t>
+  </si>
+  <si>
+    <t>31,29%</t>
+  </si>
+  <si>
+    <t>31,93%</t>
+  </si>
+  <si>
+    <t>25,06%</t>
+  </si>
+  <si>
+    <t>40,55%</t>
+  </si>
+  <si>
+    <t>60,89%</t>
+  </si>
+  <si>
+    <t>50,44%</t>
+  </si>
+  <si>
+    <t>71,73%</t>
+  </si>
+  <si>
+    <t>81,27%</t>
+  </si>
+  <si>
+    <t>68,71%</t>
+  </si>
+  <si>
+    <t>91,45%</t>
+  </si>
+  <si>
+    <t>68,07%</t>
+  </si>
+  <si>
+    <t>59,45%</t>
+  </si>
+  <si>
+    <t>74,94%</t>
+  </si>
+  <si>
+    <t>Malaga</t>
+  </si>
+  <si>
+    <t>56,85%</t>
+  </si>
+  <si>
+    <t>50,75%</t>
+  </si>
+  <si>
+    <t>63,76%</t>
+  </si>
+  <si>
+    <t>43,27%</t>
+  </si>
+  <si>
+    <t>33,8%</t>
+  </si>
+  <si>
+    <t>52,81%</t>
+  </si>
+  <si>
+    <t>52,4%</t>
+  </si>
+  <si>
+    <t>47,06%</t>
+  </si>
+  <si>
+    <t>57,89%</t>
+  </si>
+  <si>
+    <t>43,15%</t>
+  </si>
+  <si>
+    <t>36,24%</t>
+  </si>
+  <si>
+    <t>49,25%</t>
+  </si>
+  <si>
+    <t>56,73%</t>
+  </si>
+  <si>
+    <t>47,19%</t>
+  </si>
+  <si>
+    <t>66,2%</t>
+  </si>
+  <si>
+    <t>47,6%</t>
+  </si>
+  <si>
+    <t>42,11%</t>
+  </si>
+  <si>
+    <t>52,94%</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>65,55%</t>
+  </si>
+  <si>
+    <t>60,93%</t>
+  </si>
+  <si>
+    <t>69,96%</t>
+  </si>
+  <si>
+    <t>54,27%</t>
+  </si>
+  <si>
+    <t>47,24%</t>
+  </si>
+  <si>
+    <t>61,11%</t>
+  </si>
+  <si>
+    <t>61,81%</t>
+  </si>
+  <si>
+    <t>57,73%</t>
+  </si>
+  <si>
+    <t>65,49%</t>
+  </si>
+  <si>
+    <t>34,45%</t>
+  </si>
+  <si>
+    <t>30,04%</t>
+  </si>
+  <si>
+    <t>39,07%</t>
+  </si>
+  <si>
+    <t>45,73%</t>
+  </si>
+  <si>
+    <t>38,89%</t>
+  </si>
+  <si>
+    <t>52,76%</t>
+  </si>
+  <si>
+    <t>38,19%</t>
+  </si>
+  <si>
+    <t>34,51%</t>
+  </si>
+  <si>
+    <t>42,27%</t>
+  </si>
+  <si>
+    <t>52,84%</t>
+  </si>
+  <si>
+    <t>50,17%</t>
+  </si>
+  <si>
+    <t>55,42%</t>
+  </si>
+  <si>
+    <t>39,03%</t>
+  </si>
+  <si>
+    <t>35,65%</t>
+  </si>
+  <si>
     <t>42,55%</t>
   </si>
   <si>
-    <t>60,09%</t>
-  </si>
-  <si>
-    <t>55,07%</t>
-  </si>
-  <si>
-    <t>49,72%</t>
-  </si>
-  <si>
-    <t>60,37%</t>
-  </si>
-  <si>
-    <t>43,02%</t>
-  </si>
-  <si>
-    <t>36,53%</t>
-  </si>
-  <si>
-    <t>49,68%</t>
-  </si>
-  <si>
-    <t>48,88%</t>
-  </si>
-  <si>
-    <t>39,91%</t>
+    <t>48,19%</t>
+  </si>
+  <si>
+    <t>46,13%</t>
+  </si>
+  <si>
+    <t>50,4%</t>
+  </si>
+  <si>
+    <t>47,16%</t>
+  </si>
+  <si>
+    <t>44,58%</t>
+  </si>
+  <si>
+    <t>49,83%</t>
+  </si>
+  <si>
+    <t>60,97%</t>
   </si>
   <si>
     <t>57,45%</t>
   </si>
   <si>
-    <t>44,93%</t>
-  </si>
-  <si>
-    <t>39,63%</t>
-  </si>
-  <si>
-    <t>50,28%</t>
-  </si>
-  <si>
-    <t>Cordoba</t>
-  </si>
-  <si>
-    <t>38,01%</t>
-  </si>
-  <si>
-    <t>28,45%</t>
-  </si>
-  <si>
-    <t>48,05%</t>
-  </si>
-  <si>
-    <t>19,14%</t>
-  </si>
-  <si>
-    <t>9,22%</t>
-  </si>
-  <si>
-    <t>31,59%</t>
-  </si>
-  <si>
-    <t>32,42%</t>
-  </si>
-  <si>
-    <t>25,31%</t>
-  </si>
-  <si>
-    <t>41,0%</t>
-  </si>
-  <si>
-    <t>61,99%</t>
-  </si>
-  <si>
-    <t>51,95%</t>
-  </si>
-  <si>
-    <t>71,55%</t>
-  </si>
-  <si>
-    <t>80,86%</t>
-  </si>
-  <si>
-    <t>68,41%</t>
-  </si>
-  <si>
-    <t>90,78%</t>
-  </si>
-  <si>
-    <t>67,58%</t>
-  </si>
-  <si>
-    <t>59,0%</t>
-  </si>
-  <si>
-    <t>74,69%</t>
-  </si>
-  <si>
-    <t>Granada</t>
-  </si>
-  <si>
-    <t>28,12%</t>
-  </si>
-  <si>
-    <t>21,07%</t>
-  </si>
-  <si>
-    <t>35,96%</t>
-  </si>
-  <si>
-    <t>22,53%</t>
-  </si>
-  <si>
-    <t>15,04%</t>
-  </si>
-  <si>
-    <t>32,96%</t>
-  </si>
-  <si>
-    <t>26,01%</t>
-  </si>
-  <si>
-    <t>20,48%</t>
-  </si>
-  <si>
-    <t>31,51%</t>
-  </si>
-  <si>
-    <t>71,88%</t>
-  </si>
-  <si>
-    <t>64,04%</t>
-  </si>
-  <si>
-    <t>78,93%</t>
-  </si>
-  <si>
-    <t>77,47%</t>
-  </si>
-  <si>
-    <t>67,04%</t>
-  </si>
-  <si>
-    <t>84,96%</t>
-  </si>
-  <si>
-    <t>73,99%</t>
-  </si>
-  <si>
-    <t>68,49%</t>
-  </si>
-  <si>
-    <t>79,52%</t>
-  </si>
-  <si>
-    <t>Huelva</t>
-  </si>
-  <si>
-    <t>69,18%</t>
-  </si>
-  <si>
-    <t>59,48%</t>
-  </si>
-  <si>
-    <t>77,98%</t>
-  </si>
-  <si>
-    <t>49,73%</t>
-  </si>
-  <si>
-    <t>32,51%</t>
-  </si>
-  <si>
-    <t>67,97%</t>
-  </si>
-  <si>
-    <t>64,46%</t>
-  </si>
-  <si>
-    <t>55,95%</t>
-  </si>
-  <si>
-    <t>72,27%</t>
-  </si>
-  <si>
-    <t>30,82%</t>
-  </si>
-  <si>
-    <t>22,02%</t>
-  </si>
-  <si>
-    <t>40,52%</t>
-  </si>
-  <si>
-    <t>50,27%</t>
-  </si>
-  <si>
-    <t>32,03%</t>
-  </si>
-  <si>
-    <t>67,49%</t>
-  </si>
-  <si>
-    <t>35,54%</t>
-  </si>
-  <si>
-    <t>27,73%</t>
-  </si>
-  <si>
-    <t>44,05%</t>
-  </si>
-  <si>
-    <t>Jaen</t>
-  </si>
-  <si>
-    <t>39,11%</t>
-  </si>
-  <si>
-    <t>29,47%</t>
-  </si>
-  <si>
-    <t>49,71%</t>
-  </si>
-  <si>
-    <t>18,73%</t>
-  </si>
-  <si>
-    <t>10,07%</t>
-  </si>
-  <si>
-    <t>33,27%</t>
-  </si>
-  <si>
-    <t>31,93%</t>
-  </si>
-  <si>
-    <t>23,98%</t>
-  </si>
-  <si>
-    <t>39,86%</t>
-  </si>
-  <si>
-    <t>60,89%</t>
-  </si>
-  <si>
-    <t>50,29%</t>
-  </si>
-  <si>
-    <t>70,53%</t>
-  </si>
-  <si>
-    <t>81,27%</t>
-  </si>
-  <si>
-    <t>66,73%</t>
-  </si>
-  <si>
-    <t>89,93%</t>
-  </si>
-  <si>
-    <t>68,07%</t>
-  </si>
-  <si>
-    <t>60,14%</t>
-  </si>
-  <si>
-    <t>76,02%</t>
-  </si>
-  <si>
-    <t>Malaga</t>
-  </si>
-  <si>
-    <t>56,85%</t>
-  </si>
-  <si>
-    <t>50,8%</t>
-  </si>
-  <si>
-    <t>63,58%</t>
-  </si>
-  <si>
-    <t>43,27%</t>
-  </si>
-  <si>
-    <t>33,37%</t>
-  </si>
-  <si>
-    <t>51,63%</t>
-  </si>
-  <si>
-    <t>52,4%</t>
-  </si>
-  <si>
-    <t>46,82%</t>
-  </si>
-  <si>
-    <t>57,9%</t>
-  </si>
-  <si>
-    <t>43,15%</t>
-  </si>
-  <si>
-    <t>36,42%</t>
-  </si>
-  <si>
-    <t>49,2%</t>
-  </si>
-  <si>
-    <t>56,73%</t>
-  </si>
-  <si>
-    <t>48,37%</t>
-  </si>
-  <si>
-    <t>66,63%</t>
-  </si>
-  <si>
-    <t>47,6%</t>
-  </si>
-  <si>
-    <t>42,1%</t>
-  </si>
-  <si>
-    <t>53,18%</t>
-  </si>
-  <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
-    <t>65,55%</t>
-  </si>
-  <si>
-    <t>60,63%</t>
-  </si>
-  <si>
-    <t>70,1%</t>
-  </si>
-  <si>
-    <t>54,27%</t>
-  </si>
-  <si>
-    <t>47,0%</t>
-  </si>
-  <si>
-    <t>61,27%</t>
-  </si>
-  <si>
-    <t>61,81%</t>
-  </si>
-  <si>
-    <t>57,74%</t>
-  </si>
-  <si>
-    <t>65,5%</t>
-  </si>
-  <si>
-    <t>34,45%</t>
-  </si>
-  <si>
-    <t>29,9%</t>
-  </si>
-  <si>
-    <t>39,37%</t>
-  </si>
-  <si>
-    <t>45,73%</t>
-  </si>
-  <si>
-    <t>38,73%</t>
-  </si>
-  <si>
-    <t>53,0%</t>
-  </si>
-  <si>
-    <t>38,19%</t>
-  </si>
-  <si>
-    <t>34,5%</t>
-  </si>
-  <si>
-    <t>42,26%</t>
-  </si>
-  <si>
-    <t>52,84%</t>
-  </si>
-  <si>
-    <t>50,08%</t>
-  </si>
-  <si>
-    <t>55,57%</t>
-  </si>
-  <si>
-    <t>39,03%</t>
-  </si>
-  <si>
-    <t>35,1%</t>
-  </si>
-  <si>
-    <t>42,59%</t>
-  </si>
-  <si>
-    <t>48,19%</t>
-  </si>
-  <si>
-    <t>46,05%</t>
-  </si>
-  <si>
-    <t>50,48%</t>
-  </si>
-  <si>
-    <t>47,16%</t>
-  </si>
-  <si>
-    <t>44,43%</t>
-  </si>
-  <si>
-    <t>49,92%</t>
-  </si>
-  <si>
-    <t>60,97%</t>
-  </si>
-  <si>
-    <t>57,41%</t>
-  </si>
-  <si>
-    <t>64,9%</t>
+    <t>64,35%</t>
   </si>
   <si>
     <t>51,81%</t>
   </si>
   <si>
-    <t>49,52%</t>
-  </si>
-  <si>
-    <t>53,95%</t>
+    <t>49,6%</t>
+  </si>
+  <si>
+    <t>53,87%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -996,7 +990,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0770770D-9C86-4B21-9CB3-134CE0DF188F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C0FF9B3-1FDC-45FE-AF77-1D712F4A16DE}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1663,7 +1657,7 @@
         <v>177</v>
       </c>
       <c r="N14" s="7">
-        <v>178162</v>
+        <v>178161</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>85</v>
@@ -1714,7 +1708,7 @@
         <v>238</v>
       </c>
       <c r="N15" s="7">
-        <v>240803</v>
+        <v>240802</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -1770,13 +1764,13 @@
         <v>85658</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>96</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1791,13 +1785,13 @@
         <v>31028</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>99</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>100</v>
       </c>
       <c r="H17" s="7">
         <v>14</v>
@@ -1806,13 +1800,13 @@
         <v>16192</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>102</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>103</v>
       </c>
       <c r="M17" s="7">
         <v>43</v>
@@ -1821,13 +1815,13 @@
         <v>47221</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>104</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1883,7 +1877,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -1895,13 +1889,13 @@
         <v>35504</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>108</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>110</v>
       </c>
       <c r="H19" s="7">
         <v>9</v>
@@ -1910,13 +1904,13 @@
         <v>9259</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>111</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>113</v>
       </c>
       <c r="M19" s="7">
         <v>41</v>
@@ -1925,13 +1919,13 @@
         <v>44763</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>114</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -1946,13 +1940,13 @@
         <v>55268</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>117</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>119</v>
       </c>
       <c r="H20" s="7">
         <v>39</v>
@@ -1961,13 +1955,13 @@
         <v>40182</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>120</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>122</v>
       </c>
       <c r="M20" s="7">
         <v>94</v>
@@ -1976,13 +1970,13 @@
         <v>95450</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>123</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2038,7 +2032,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -2050,13 +2044,13 @@
         <v>136549</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>127</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>129</v>
       </c>
       <c r="H22" s="7">
         <v>50</v>
@@ -2065,13 +2059,13 @@
         <v>50570</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>130</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>132</v>
       </c>
       <c r="M22" s="7">
         <v>175</v>
@@ -2080,13 +2074,13 @@
         <v>187119</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>133</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2101,13 +2095,13 @@
         <v>103648</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="G23" s="7" t="s">
         <v>136</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>137</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>138</v>
       </c>
       <c r="H23" s="7">
         <v>59</v>
@@ -2116,13 +2110,13 @@
         <v>66298</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="L23" s="7" t="s">
         <v>139</v>
-      </c>
-      <c r="K23" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>141</v>
       </c>
       <c r="M23" s="7">
         <v>159</v>
@@ -2131,13 +2125,13 @@
         <v>169946</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="P23" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="Q23" s="7" t="s">
         <v>142</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>143</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2193,7 +2187,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -2205,13 +2199,13 @@
         <v>277981</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="G25" s="7" t="s">
         <v>146</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>147</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>148</v>
       </c>
       <c r="H25" s="7">
         <v>110</v>
@@ -2220,13 +2214,13 @@
         <v>113822</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="L25" s="7" t="s">
         <v>149</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>150</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>151</v>
       </c>
       <c r="M25" s="7">
         <v>380</v>
@@ -2235,13 +2229,13 @@
         <v>391803</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="Q25" s="7" t="s">
         <v>152</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>153</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>154</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2256,13 +2250,13 @@
         <v>146123</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="G26" s="7" t="s">
         <v>155</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>157</v>
       </c>
       <c r="H26" s="7">
         <v>91</v>
@@ -2271,13 +2265,13 @@
         <v>95917</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="L26" s="7" t="s">
         <v>158</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>159</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>160</v>
       </c>
       <c r="M26" s="7">
         <v>234</v>
@@ -2286,13 +2280,13 @@
         <v>242040</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="Q26" s="7" t="s">
         <v>161</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>162</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>163</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2360,13 +2354,13 @@
         <v>781950</v>
       </c>
       <c r="E28" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="G28" s="7" t="s">
         <v>164</v>
-      </c>
-      <c r="F28" s="7" t="s">
-        <v>165</v>
-      </c>
-      <c r="G28" s="7" t="s">
-        <v>166</v>
       </c>
       <c r="H28" s="7">
         <v>285</v>
@@ -2375,13 +2369,13 @@
         <v>293080</v>
       </c>
       <c r="J28" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="K28" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="L28" s="7" t="s">
         <v>167</v>
-      </c>
-      <c r="K28" s="7" t="s">
-        <v>168</v>
-      </c>
-      <c r="L28" s="7" t="s">
-        <v>169</v>
       </c>
       <c r="M28" s="7">
         <v>1030</v>
@@ -2390,13 +2384,13 @@
         <v>1075030</v>
       </c>
       <c r="O28" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="P28" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="Q28" s="7" t="s">
         <v>170</v>
-      </c>
-      <c r="P28" s="7" t="s">
-        <v>171</v>
-      </c>
-      <c r="Q28" s="7" t="s">
-        <v>172</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -2411,13 +2405,13 @@
         <v>697985</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="G29" s="7" t="s">
         <v>173</v>
-      </c>
-      <c r="F29" s="7" t="s">
-        <v>174</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>175</v>
       </c>
       <c r="H29" s="7">
         <v>433</v>
@@ -2426,13 +2420,13 @@
         <v>457773</v>
       </c>
       <c r="J29" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="K29" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="L29" s="7" t="s">
         <v>176</v>
-      </c>
-      <c r="K29" s="7" t="s">
-        <v>177</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>178</v>
       </c>
       <c r="M29" s="7">
         <v>1104</v>
@@ -2441,13 +2435,13 @@
         <v>1155758</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="P29" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="Q29" s="7" t="s">
         <v>179</v>
-      </c>
-      <c r="P29" s="7" t="s">
-        <v>180</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>181</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2503,7 +2497,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P70A05_2007-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P70A05_2007-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CB97B18F-424C-4D54-9CF5-3B6C32FE87B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5819165A-E046-45C9-93AC-058A80CD0BEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{20D01717-A0D9-480A-8385-2AF6A6B71867}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{CB818320-FAD0-444A-B3DD-8DEB9679E03E}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="183">
   <si>
     <t>Población según si tiene un comité de seguridad y salud o bien delegados de prevención en su empresa en 2007 (Tasa respuesta: 32,78%)</t>
   </si>
@@ -68,34 +68,34 @@
     <t>Almeria</t>
   </si>
   <si>
-    <t>Si</t>
+    <t>Sí</t>
   </si>
   <si>
     <t>30,69%</t>
   </si>
   <si>
-    <t>22,56%</t>
-  </si>
-  <si>
-    <t>40,19%</t>
+    <t>22,21%</t>
+  </si>
+  <si>
+    <t>38,99%</t>
   </si>
   <si>
     <t>13,57%</t>
   </si>
   <si>
-    <t>7,24%</t>
-  </si>
-  <si>
-    <t>22,68%</t>
+    <t>7,35%</t>
+  </si>
+  <si>
+    <t>23,03%</t>
   </si>
   <si>
     <t>23,49%</t>
   </si>
   <si>
-    <t>18,22%</t>
-  </si>
-  <si>
-    <t>29,87%</t>
+    <t>18,3%</t>
+  </si>
+  <si>
+    <t>30,65%</t>
   </si>
   <si>
     <t>No</t>
@@ -104,28 +104,28 @@
     <t>69,31%</t>
   </si>
   <si>
-    <t>59,81%</t>
-  </si>
-  <si>
-    <t>77,44%</t>
+    <t>61,01%</t>
+  </si>
+  <si>
+    <t>77,79%</t>
   </si>
   <si>
     <t>86,43%</t>
   </si>
   <si>
-    <t>77,32%</t>
-  </si>
-  <si>
-    <t>92,76%</t>
+    <t>76,97%</t>
+  </si>
+  <si>
+    <t>92,65%</t>
   </si>
   <si>
     <t>76,51%</t>
   </si>
   <si>
-    <t>70,13%</t>
-  </si>
-  <si>
-    <t>81,78%</t>
+    <t>69,35%</t>
+  </si>
+  <si>
+    <t>81,7%</t>
   </si>
   <si>
     <t>100%</t>
@@ -137,55 +137,55 @@
     <t>56,98%</t>
   </si>
   <si>
-    <t>50,77%</t>
-  </si>
-  <si>
-    <t>63,49%</t>
+    <t>50,73%</t>
+  </si>
+  <si>
+    <t>63,51%</t>
   </si>
   <si>
     <t>51,12%</t>
   </si>
   <si>
-    <t>42,41%</t>
-  </si>
-  <si>
-    <t>59,98%</t>
+    <t>43,01%</t>
+  </si>
+  <si>
+    <t>60,99%</t>
   </si>
   <si>
     <t>55,07%</t>
   </si>
   <si>
-    <t>49,22%</t>
-  </si>
-  <si>
-    <t>60,13%</t>
+    <t>49,8%</t>
+  </si>
+  <si>
+    <t>60,3%</t>
   </si>
   <si>
     <t>43,02%</t>
   </si>
   <si>
-    <t>36,51%</t>
-  </si>
-  <si>
-    <t>49,23%</t>
+    <t>36,49%</t>
+  </si>
+  <si>
+    <t>49,27%</t>
   </si>
   <si>
     <t>48,88%</t>
   </si>
   <si>
-    <t>40,02%</t>
-  </si>
-  <si>
-    <t>57,59%</t>
+    <t>39,01%</t>
+  </si>
+  <si>
+    <t>56,99%</t>
   </si>
   <si>
     <t>44,93%</t>
   </si>
   <si>
-    <t>39,87%</t>
-  </si>
-  <si>
-    <t>50,78%</t>
+    <t>39,7%</t>
+  </si>
+  <si>
+    <t>50,2%</t>
   </si>
   <si>
     <t>Cordoba</t>
@@ -194,55 +194,55 @@
     <t>38,01%</t>
   </si>
   <si>
-    <t>28,38%</t>
-  </si>
-  <si>
-    <t>48,43%</t>
+    <t>28,26%</t>
+  </si>
+  <si>
+    <t>48,39%</t>
   </si>
   <si>
     <t>19,14%</t>
   </si>
   <si>
-    <t>8,95%</t>
-  </si>
-  <si>
-    <t>33,73%</t>
+    <t>9,52%</t>
+  </si>
+  <si>
+    <t>34,36%</t>
   </si>
   <si>
     <t>32,42%</t>
   </si>
   <si>
-    <t>24,84%</t>
-  </si>
-  <si>
-    <t>40,01%</t>
+    <t>24,98%</t>
+  </si>
+  <si>
+    <t>41,21%</t>
   </si>
   <si>
     <t>61,99%</t>
   </si>
   <si>
-    <t>51,57%</t>
-  </si>
-  <si>
-    <t>71,62%</t>
+    <t>51,61%</t>
+  </si>
+  <si>
+    <t>71,74%</t>
   </si>
   <si>
     <t>80,86%</t>
   </si>
   <si>
-    <t>66,27%</t>
-  </si>
-  <si>
-    <t>91,05%</t>
+    <t>65,64%</t>
+  </si>
+  <si>
+    <t>90,48%</t>
   </si>
   <si>
     <t>67,58%</t>
   </si>
   <si>
-    <t>59,99%</t>
-  </si>
-  <si>
-    <t>75,16%</t>
+    <t>58,79%</t>
+  </si>
+  <si>
+    <t>75,02%</t>
   </si>
   <si>
     <t>Granada</t>
@@ -251,106 +251,112 @@
     <t>28,12%</t>
   </si>
   <si>
-    <t>20,35%</t>
+    <t>21,23%</t>
+  </si>
+  <si>
+    <t>36,7%</t>
+  </si>
+  <si>
+    <t>22,53%</t>
+  </si>
+  <si>
+    <t>14,98%</t>
+  </si>
+  <si>
+    <t>31,53%</t>
+  </si>
+  <si>
+    <t>26,01%</t>
+  </si>
+  <si>
+    <t>20,76%</t>
+  </si>
+  <si>
+    <t>31,95%</t>
+  </si>
+  <si>
+    <t>71,88%</t>
+  </si>
+  <si>
+    <t>63,3%</t>
+  </si>
+  <si>
+    <t>78,77%</t>
+  </si>
+  <si>
+    <t>77,47%</t>
+  </si>
+  <si>
+    <t>68,47%</t>
+  </si>
+  <si>
+    <t>85,02%</t>
+  </si>
+  <si>
+    <t>73,99%</t>
+  </si>
+  <si>
+    <t>68,05%</t>
+  </si>
+  <si>
+    <t>79,24%</t>
+  </si>
+  <si>
+    <t>Huelva</t>
+  </si>
+  <si>
+    <t>69,18%</t>
+  </si>
+  <si>
+    <t>58,45%</t>
+  </si>
+  <si>
+    <t>78,09%</t>
+  </si>
+  <si>
+    <t>49,73%</t>
+  </si>
+  <si>
+    <t>30,8%</t>
+  </si>
+  <si>
+    <t>67,13%</t>
+  </si>
+  <si>
+    <t>64,46%</t>
+  </si>
+  <si>
+    <t>55,45%</t>
+  </si>
+  <si>
+    <t>72,26%</t>
+  </si>
+  <si>
+    <t>30,82%</t>
+  </si>
+  <si>
+    <t>21,91%</t>
+  </si>
+  <si>
+    <t>41,55%</t>
+  </si>
+  <si>
+    <t>50,27%</t>
+  </si>
+  <si>
+    <t>32,87%</t>
+  </si>
+  <si>
+    <t>69,2%</t>
   </si>
   <si>
     <t>35,54%</t>
   </si>
   <si>
-    <t>22,53%</t>
-  </si>
-  <si>
-    <t>14,28%</t>
-  </si>
-  <si>
-    <t>31,65%</t>
-  </si>
-  <si>
-    <t>26,01%</t>
-  </si>
-  <si>
-    <t>20,85%</t>
-  </si>
-  <si>
-    <t>31,75%</t>
-  </si>
-  <si>
-    <t>71,88%</t>
-  </si>
-  <si>
-    <t>64,46%</t>
-  </si>
-  <si>
-    <t>79,65%</t>
-  </si>
-  <si>
-    <t>77,47%</t>
-  </si>
-  <si>
-    <t>68,35%</t>
-  </si>
-  <si>
-    <t>85,72%</t>
-  </si>
-  <si>
-    <t>73,99%</t>
-  </si>
-  <si>
-    <t>68,25%</t>
-  </si>
-  <si>
-    <t>79,15%</t>
-  </si>
-  <si>
-    <t>Huelva</t>
-  </si>
-  <si>
-    <t>69,18%</t>
-  </si>
-  <si>
-    <t>59,46%</t>
-  </si>
-  <si>
-    <t>77,87%</t>
-  </si>
-  <si>
-    <t>49,73%</t>
-  </si>
-  <si>
-    <t>32,31%</t>
-  </si>
-  <si>
-    <t>67,59%</t>
-  </si>
-  <si>
-    <t>55,73%</t>
-  </si>
-  <si>
-    <t>72,51%</t>
-  </si>
-  <si>
-    <t>30,82%</t>
-  </si>
-  <si>
-    <t>22,13%</t>
-  </si>
-  <si>
-    <t>40,54%</t>
-  </si>
-  <si>
-    <t>50,27%</t>
-  </si>
-  <si>
-    <t>32,41%</t>
-  </si>
-  <si>
-    <t>67,69%</t>
-  </si>
-  <si>
-    <t>27,49%</t>
-  </si>
-  <si>
-    <t>44,27%</t>
+    <t>27,74%</t>
+  </si>
+  <si>
+    <t>44,55%</t>
   </si>
   <si>
     <t>Jaen</t>
@@ -359,112 +365,112 @@
     <t>39,11%</t>
   </si>
   <si>
-    <t>28,27%</t>
+    <t>29,24%</t>
+  </si>
+  <si>
+    <t>49,91%</t>
+  </si>
+  <si>
+    <t>18,73%</t>
+  </si>
+  <si>
+    <t>9,88%</t>
+  </si>
+  <si>
+    <t>31,18%</t>
+  </si>
+  <si>
+    <t>31,93%</t>
+  </si>
+  <si>
+    <t>24,34%</t>
+  </si>
+  <si>
+    <t>40,45%</t>
+  </si>
+  <si>
+    <t>60,89%</t>
+  </si>
+  <si>
+    <t>50,09%</t>
+  </si>
+  <si>
+    <t>70,76%</t>
+  </si>
+  <si>
+    <t>81,27%</t>
+  </si>
+  <si>
+    <t>68,82%</t>
+  </si>
+  <si>
+    <t>90,12%</t>
+  </si>
+  <si>
+    <t>68,07%</t>
+  </si>
+  <si>
+    <t>59,55%</t>
+  </si>
+  <si>
+    <t>75,66%</t>
+  </si>
+  <si>
+    <t>Malaga</t>
+  </si>
+  <si>
+    <t>56,85%</t>
+  </si>
+  <si>
+    <t>50,44%</t>
+  </si>
+  <si>
+    <t>63,82%</t>
+  </si>
+  <si>
+    <t>43,27%</t>
+  </si>
+  <si>
+    <t>34,84%</t>
+  </si>
+  <si>
+    <t>53,97%</t>
+  </si>
+  <si>
+    <t>52,4%</t>
+  </si>
+  <si>
+    <t>46,82%</t>
+  </si>
+  <si>
+    <t>57,81%</t>
+  </si>
+  <si>
+    <t>43,15%</t>
+  </si>
+  <si>
+    <t>36,18%</t>
   </si>
   <si>
     <t>49,56%</t>
   </si>
   <si>
-    <t>18,73%</t>
-  </si>
-  <si>
-    <t>8,55%</t>
-  </si>
-  <si>
-    <t>31,29%</t>
-  </si>
-  <si>
-    <t>31,93%</t>
-  </si>
-  <si>
-    <t>25,06%</t>
-  </si>
-  <si>
-    <t>40,55%</t>
-  </si>
-  <si>
-    <t>60,89%</t>
-  </si>
-  <si>
-    <t>50,44%</t>
-  </si>
-  <si>
-    <t>71,73%</t>
-  </si>
-  <si>
-    <t>81,27%</t>
-  </si>
-  <si>
-    <t>68,71%</t>
-  </si>
-  <si>
-    <t>91,45%</t>
-  </si>
-  <si>
-    <t>68,07%</t>
-  </si>
-  <si>
-    <t>59,45%</t>
-  </si>
-  <si>
-    <t>74,94%</t>
-  </si>
-  <si>
-    <t>Malaga</t>
-  </si>
-  <si>
-    <t>56,85%</t>
-  </si>
-  <si>
-    <t>50,75%</t>
-  </si>
-  <si>
-    <t>63,76%</t>
-  </si>
-  <si>
-    <t>43,27%</t>
-  </si>
-  <si>
-    <t>33,8%</t>
-  </si>
-  <si>
-    <t>52,81%</t>
-  </si>
-  <si>
-    <t>52,4%</t>
-  </si>
-  <si>
-    <t>47,06%</t>
-  </si>
-  <si>
-    <t>57,89%</t>
-  </si>
-  <si>
-    <t>43,15%</t>
-  </si>
-  <si>
-    <t>36,24%</t>
-  </si>
-  <si>
-    <t>49,25%</t>
-  </si>
-  <si>
     <t>56,73%</t>
   </si>
   <si>
-    <t>47,19%</t>
-  </si>
-  <si>
-    <t>66,2%</t>
+    <t>46,03%</t>
+  </si>
+  <si>
+    <t>65,16%</t>
   </si>
   <si>
     <t>47,6%</t>
   </si>
   <si>
-    <t>42,11%</t>
-  </si>
-  <si>
-    <t>52,94%</t>
+    <t>42,19%</t>
+  </si>
+  <si>
+    <t>53,18%</t>
   </si>
   <si>
     <t>Sevilla</t>
@@ -473,109 +479,109 @@
     <t>65,55%</t>
   </si>
   <si>
-    <t>60,93%</t>
-  </si>
-  <si>
-    <t>69,96%</t>
+    <t>60,96%</t>
+  </si>
+  <si>
+    <t>70,06%</t>
   </si>
   <si>
     <t>54,27%</t>
   </si>
   <si>
-    <t>47,24%</t>
-  </si>
-  <si>
-    <t>61,11%</t>
+    <t>47,57%</t>
+  </si>
+  <si>
+    <t>61,26%</t>
   </si>
   <si>
     <t>61,81%</t>
   </si>
   <si>
-    <t>57,73%</t>
-  </si>
-  <si>
-    <t>65,49%</t>
+    <t>58,09%</t>
+  </si>
+  <si>
+    <t>65,81%</t>
   </si>
   <si>
     <t>34,45%</t>
   </si>
   <si>
-    <t>30,04%</t>
-  </si>
-  <si>
-    <t>39,07%</t>
+    <t>29,94%</t>
+  </si>
+  <si>
+    <t>39,04%</t>
   </si>
   <si>
     <t>45,73%</t>
   </si>
   <si>
-    <t>38,89%</t>
-  </si>
-  <si>
-    <t>52,76%</t>
+    <t>38,74%</t>
+  </si>
+  <si>
+    <t>52,43%</t>
   </si>
   <si>
     <t>38,19%</t>
   </si>
   <si>
-    <t>34,51%</t>
-  </si>
-  <si>
-    <t>42,27%</t>
+    <t>34,19%</t>
+  </si>
+  <si>
+    <t>41,91%</t>
   </si>
   <si>
     <t>52,84%</t>
   </si>
   <si>
-    <t>50,17%</t>
-  </si>
-  <si>
-    <t>55,42%</t>
+    <t>50,24%</t>
+  </si>
+  <si>
+    <t>55,43%</t>
   </si>
   <si>
     <t>39,03%</t>
   </si>
   <si>
-    <t>35,65%</t>
-  </si>
-  <si>
-    <t>42,55%</t>
+    <t>35,53%</t>
+  </si>
+  <si>
+    <t>42,69%</t>
   </si>
   <si>
     <t>48,19%</t>
   </si>
   <si>
-    <t>46,13%</t>
-  </si>
-  <si>
-    <t>50,4%</t>
+    <t>46,1%</t>
+  </si>
+  <si>
+    <t>50,3%</t>
   </si>
   <si>
     <t>47,16%</t>
   </si>
   <si>
-    <t>44,58%</t>
-  </si>
-  <si>
-    <t>49,83%</t>
+    <t>44,57%</t>
+  </si>
+  <si>
+    <t>49,76%</t>
   </si>
   <si>
     <t>60,97%</t>
   </si>
   <si>
-    <t>57,45%</t>
-  </si>
-  <si>
-    <t>64,35%</t>
+    <t>57,31%</t>
+  </si>
+  <si>
+    <t>64,47%</t>
   </si>
   <si>
     <t>51,81%</t>
   </si>
   <si>
-    <t>49,6%</t>
-  </si>
-  <si>
-    <t>53,87%</t>
+    <t>49,7%</t>
+  </si>
+  <si>
+    <t>53,9%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -990,7 +996,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C0FF9B3-1FDC-45FE-AF77-1D712F4A16DE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6FD722B-EBFD-4F7E-B7E3-48B6E0370060}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1764,13 +1770,13 @@
         <v>85658</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>80</v>
+        <v>95</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1785,13 +1791,13 @@
         <v>31028</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="H17" s="7">
         <v>14</v>
@@ -1800,13 +1806,13 @@
         <v>16192</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="M17" s="7">
         <v>43</v>
@@ -1815,13 +1821,13 @@
         <v>47221</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>72</v>
+        <v>104</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1877,7 +1883,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -1889,13 +1895,13 @@
         <v>35504</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="H19" s="7">
         <v>9</v>
@@ -1904,13 +1910,13 @@
         <v>9259</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="M19" s="7">
         <v>41</v>
@@ -1919,13 +1925,13 @@
         <v>44763</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -1940,13 +1946,13 @@
         <v>55268</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="H20" s="7">
         <v>39</v>
@@ -1955,13 +1961,13 @@
         <v>40182</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="M20" s="7">
         <v>94</v>
@@ -1970,13 +1976,13 @@
         <v>95450</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2032,7 +2038,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -2044,13 +2050,13 @@
         <v>136549</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="H22" s="7">
         <v>50</v>
@@ -2059,13 +2065,13 @@
         <v>50570</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="M22" s="7">
         <v>175</v>
@@ -2074,13 +2080,13 @@
         <v>187119</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2095,13 +2101,13 @@
         <v>103648</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="H23" s="7">
         <v>59</v>
@@ -2110,13 +2116,13 @@
         <v>66298</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="M23" s="7">
         <v>159</v>
@@ -2125,13 +2131,13 @@
         <v>169946</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2187,7 +2193,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -2199,13 +2205,13 @@
         <v>277981</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="H25" s="7">
         <v>110</v>
@@ -2214,13 +2220,13 @@
         <v>113822</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="M25" s="7">
         <v>380</v>
@@ -2229,13 +2235,13 @@
         <v>391803</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2250,13 +2256,13 @@
         <v>146123</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="H26" s="7">
         <v>91</v>
@@ -2265,13 +2271,13 @@
         <v>95917</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="M26" s="7">
         <v>234</v>
@@ -2280,13 +2286,13 @@
         <v>242040</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2354,13 +2360,13 @@
         <v>781950</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="H28" s="7">
         <v>285</v>
@@ -2369,13 +2375,13 @@
         <v>293080</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="M28" s="7">
         <v>1030</v>
@@ -2384,13 +2390,13 @@
         <v>1075030</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -2405,13 +2411,13 @@
         <v>697985</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="H29" s="7">
         <v>433</v>
@@ -2420,13 +2426,13 @@
         <v>457773</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="M29" s="7">
         <v>1104</v>
@@ -2435,13 +2441,13 @@
         <v>1155758</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2497,7 +2503,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P70A05_2007-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P70A05_2007-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5819165A-E046-45C9-93AC-058A80CD0BEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{209C90EE-C1FD-4C23-B237-2FC037D22FF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{CB818320-FAD0-444A-B3DD-8DEB9679E03E}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{FC3A95B8-8B6A-4120-956E-48168FB43146}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -996,7 +996,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6FD722B-EBFD-4F7E-B7E3-48B6E0370060}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D147674A-03FF-4FC6-ACB5-2BB0326D3080}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
